--- a/SingleCycle/truthtable.xlsx
+++ b/SingleCycle/truthtable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="109">
   <si>
     <t>instruct</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -445,6 +445,14 @@
   </si>
   <si>
     <t>010_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,10 +508,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -853,7 +861,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -900,7 +908,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -945,7 +953,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -990,7 +998,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1035,7 +1043,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1080,7 +1088,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1125,7 +1133,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1170,7 +1178,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1215,7 +1223,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1260,7 +1268,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1305,7 +1313,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1350,7 +1358,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1395,7 +1403,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1440,7 +1448,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1485,7 +1493,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1530,7 +1538,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1577,7 +1585,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
         <v>70</v>
       </c>
@@ -1622,7 +1630,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
         <v>71</v>
       </c>
@@ -1667,7 +1675,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="1" t="s">
         <v>64</v>
       </c>
@@ -1712,7 +1720,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="1" t="s">
         <v>65</v>
       </c>
@@ -1757,7 +1765,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="1" t="s">
         <v>66</v>
       </c>
@@ -1802,57 +1810,57 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2">
-        <v>1</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>22</v>
@@ -1892,327 +1900,372 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K25" s="2">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0</v>
-      </c>
-      <c r="M25" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="2">
-        <v>1</v>
-      </c>
-      <c r="O25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="1" t="s">
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K26" s="2">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0</v>
-      </c>
-      <c r="M26" t="s">
-        <v>22</v>
-      </c>
-      <c r="N26" s="2">
-        <v>1</v>
-      </c>
-      <c r="O26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="1" t="s">
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K27" s="2">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
-      <c r="M27" t="s">
-        <v>22</v>
-      </c>
-      <c r="N27" s="2">
-        <v>1</v>
-      </c>
-      <c r="O27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="1" t="s">
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>22</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K28" s="2">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0</v>
-      </c>
-      <c r="M28" t="s">
-        <v>22</v>
-      </c>
-      <c r="N28" s="2">
-        <v>1</v>
-      </c>
-      <c r="O28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="1" t="s">
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K29" s="2">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0</v>
-      </c>
-      <c r="M29" t="s">
-        <v>22</v>
-      </c>
-      <c r="N29" s="2">
-        <v>1</v>
-      </c>
-      <c r="O29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" s="2">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="E30" s="2">
-        <v>2</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E31" s="2">
         <v>2</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="2">
         <v>2</v>
       </c>
-      <c r="G31" s="2">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="F32" s="1">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" t="s">
         <v>103</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="2">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2">
-        <v>0</v>
-      </c>
-      <c r="M31" s="5">
+      <c r="J32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
         <v>2</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N32" t="s">
         <v>104</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O32" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A29"/>
-    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A17:A30"/>
+    <mergeCell ref="A31:A32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SingleCycle/truthtable.xlsx
+++ b/SingleCycle/truthtable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="114">
   <si>
     <t>instruct</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -416,43 +416,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0x03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010_110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beqz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bnez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>J</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010_110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ori</t>
+    <t>ble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -793,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1159,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -1204,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -1812,10 +1832,10 @@
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>22</v>
@@ -2037,7 +2057,7 @@
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="1" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>85</v>
@@ -2082,7 +2102,7 @@
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>86</v>
@@ -2127,7 +2147,7 @@
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="1" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>87</v>
@@ -2170,20 +2190,18 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>99</v>
-      </c>
+      <c r="A31" s="5"/>
       <c r="B31" s="1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="E31" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>22</v>
@@ -2191,14 +2209,14 @@
       <c r="G31" s="2">
         <v>0</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>102</v>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="K31" s="2">
         <v>0</v>
@@ -2206,66 +2224,293 @@
       <c r="L31" s="2">
         <v>0</v>
       </c>
-      <c r="M31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>58</v>
+      <c r="M31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N31" s="2">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N32" s="2">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>22</v>
+      </c>
+      <c r="N33" s="2">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>22</v>
+      </c>
+      <c r="N34" s="2">
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N35" s="2">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="C37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="2">
         <v>2</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F37" s="1">
         <v>2</v>
       </c>
-      <c r="G32" s="2">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" t="s">
+        <v>102</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
         <v>103</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" s="2">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2">
-        <v>0</v>
-      </c>
-      <c r="M32" s="4">
-        <v>2</v>
-      </c>
-      <c r="N32" t="s">
-        <v>104</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="O37" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A30"/>
-    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A17:A35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
